--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -582,7 +582,7 @@
         <v>10.19</v>
       </c>
       <c r="G2">
-        <v>0.2966666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
         <v>2.43</v>
@@ -606,7 +606,7 @@
         <v>0.12</v>
       </c>
       <c r="O2">
-        <v>4.276666666666666</v>
+        <v>4.28</v>
       </c>
       <c r="P2">
         <v>0.12</v>
@@ -615,7 +615,7 @@
         <v>9.08</v>
       </c>
       <c r="R2">
-        <v>6.483333333333333</v>
+        <v>6.48</v>
       </c>
       <c r="S2">
         <v>9.199999999999999</v>
@@ -668,7 +668,7 @@
         <v>10.78</v>
       </c>
       <c r="G3">
-        <v>0.2966666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
         <v>1.71</v>
@@ -692,7 +692,7 @@
         <v>0.09</v>
       </c>
       <c r="O3">
-        <v>4.276666666666666</v>
+        <v>4.28</v>
       </c>
       <c r="P3">
         <v>0.09</v>
@@ -701,7 +701,7 @@
         <v>9.99</v>
       </c>
       <c r="R3">
-        <v>6.483333333333333</v>
+        <v>6.48</v>
       </c>
       <c r="S3">
         <v>10.08</v>
@@ -885,7 +885,7 @@
         <v>0.01</v>
       </c>
       <c r="V5">
-        <v>4.645</v>
+        <v>4.64</v>
       </c>
       <c r="W5">
         <v>0.05</v>
@@ -989,7 +989,7 @@
         <v>16.27</v>
       </c>
       <c r="AB6">
-        <v>8.705</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
